--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_15-29.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_15-29.xlsx
@@ -62,6 +62,15 @@
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -101,15 +110,9 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
@@ -183,6 +186,12 @@
   </si>
   <si>
     <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>بيبي جوي رقم 5</t>
@@ -982,7 +991,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>35</v>
+        <v>47.039999999999999</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1008,11 +1017,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1020,7 +1029,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1028,13 +1037,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1046,7 +1055,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1054,13 +1063,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1072,7 +1081,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1080,13 +1089,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1098,7 +1107,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1106,17 +1115,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1124,7 +1133,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1132,17 +1141,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1150,7 +1159,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1158,13 +1167,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1176,7 +1185,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1184,17 +1193,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1202,7 +1211,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1210,13 +1219,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1236,13 +1245,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1262,17 +1271,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1288,17 +1297,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1306,7 +1315,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1314,17 +1323,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1340,17 +1349,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1366,17 +1375,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1392,13 +1401,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1418,13 +1427,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1444,13 +1453,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1470,13 +1479,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1496,13 +1505,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1522,17 +1531,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>20.399999999999999</v>
+        <v>52</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1540,7 +1549,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1548,17 +1557,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>23</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1574,17 +1583,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1592,7 +1601,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1600,13 +1609,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1626,17 +1635,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1652,17 +1661,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1678,17 +1687,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1704,17 +1713,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1730,13 +1739,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1756,13 +1765,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1782,17 +1791,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1808,17 +1817,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1834,17 +1843,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1852,7 +1861,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1860,13 +1869,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>40</v>
+        <v>-375</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1878,7 +1887,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1886,17 +1895,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1912,13 +1921,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>188.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1938,13 +1947,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1956,7 +1965,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1964,13 +1973,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>15</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -1990,13 +1999,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2016,13 +2025,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2034,7 +2043,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2042,13 +2051,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2068,13 +2077,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2082,37 +2091,89 @@
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
-      <c r="K53" s="10">
-        <v>2166.6399999999999</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" ht="17.25" customHeight="1">
-      <c t="s" r="A54" s="11">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c t="s" r="B53" s="7">
+        <v>72</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c t="s" r="H53" s="8">
         <v>73</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c t="s" r="F54" s="12">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9">
+        <v>20</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c t="s" r="N53" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" ht="24.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c t="s" r="B54" s="7">
         <v>74</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c t="s" r="I54" s="14">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c t="s" r="H54" s="8">
         <v>75</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
+        <v>25</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c t="s" r="N54" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="26.25" customHeight="1">
+      <c r="K55" s="10">
+        <v>2247.6799999999998</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="11">
+        <v>76</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c t="s" r="F56" s="12">
+        <v>77</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+      <c t="s" r="I56" s="14">
+        <v>78</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
+  <mergeCells count="164">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2267,10 +2328,16 @@
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I56:N56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
